--- a/Copy of AGA206 Assessment 2 Checklist.xlsx
+++ b/Copy of AGA206 Assessment 2 Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vorro1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vorro1\Workspace\AGA206\Roll-A-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Status</t>
   </si>
@@ -133,12 +133,18 @@
   <si>
     <t>[14 points minimum]</t>
   </si>
+  <si>
+    <t>Make sure to put reset zone up higher so the fall is shorter. Move reset zone marker to correct spot.</t>
+  </si>
+  <si>
+    <t>Need to add world tilt cap.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -177,8 +183,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +217,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -286,11 +316,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,8 +427,17 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -450,7 +506,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,7 +550,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,11 +578,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,7 +876,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -884,7 +940,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1012,7 +1068,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1076,7 +1132,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1524,7 +1580,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1588,7 +1644,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1844,7 +1900,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1908,7 +1964,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2420,7 +2476,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2539,7 @@
       </c>
       <c r="D7" s="9">
         <f>COUNTIFS(J12:J15,TRUE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -2538,11 +2594,11 @@
       <c r="E12" s="8"/>
       <c r="F12" s="7" t="str">
         <f>IF(J12,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G12" s="19"/>
       <c r="J12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,11 +2614,13 @@
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="str">
         <f>IF(J13,"Done","To Be Done")</f>
-        <v>To Be Done</v>
-      </c>
-      <c r="G13" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="J13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2578,11 +2636,11 @@
       <c r="E14" s="8"/>
       <c r="F14" s="7" t="str">
         <f>IF(J14,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G14" s="19"/>
       <c r="J14" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2598,11 +2656,11 @@
       <c r="E15" s="8"/>
       <c r="F15" s="7" t="str">
         <f>IF(J15,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G15" s="19"/>
       <c r="J15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2631,11 +2689,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>5</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="21">
@@ -2703,11 +2761,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>8</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="21">
@@ -2718,7 +2776,9 @@
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="J21" s="5" t="b">
         <v>0</v>
       </c>
@@ -2895,11 +2955,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>16</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="21">
@@ -3015,11 +3075,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>21</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="21">
@@ -3281,7 +3341,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3303,7 +3363,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3347,7 +3407,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3369,7 +3429,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3523,7 +3583,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3545,7 +3605,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3633,7 +3693,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3655,7 +3715,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Copy of AGA206 Assessment 2 Checklist.xlsx
+++ b/Copy of AGA206 Assessment 2 Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Status</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Need to add world tilt cap.</t>
+  </si>
+  <si>
+    <t>Veronica Orro</t>
+  </si>
+  <si>
+    <t>Need to hook up to Title and Win Game Screen.</t>
   </si>
 </sst>
 </file>
@@ -415,6 +421,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -425,13 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -586,7 +592,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,7 +604,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,7 +1010,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1067,8 +1073,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2476,7 +2482,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2511,10 +2517,12 @@
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
@@ -2522,10 +2530,10 @@
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
@@ -2548,7 +2556,7 @@
       </c>
       <c r="D8" s="9">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2557,7 +2565,7 @@
       </c>
       <c r="D9" s="24">
         <f>K39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2693,7 +2701,7 @@
       <c r="B18" s="7">
         <v>5</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="21">
@@ -2702,15 +2710,17 @@
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="str">
         <f t="shared" ref="F18:F35" si="0">IF(J18,"Done","To Be Done")</f>
-        <v>To Be Done</v>
-      </c>
-      <c r="G18" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <f>IF(J18=TRUE,D18,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -2737,11 +2747,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="30" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="21">
@@ -2765,7 +2775,7 @@
       <c r="B21" s="7">
         <v>8</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="21">
@@ -2774,17 +2784,17 @@
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G21" s="34" t="s">
+        <v>Done</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -2959,7 +2969,7 @@
       <c r="B29" s="7">
         <v>16</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="21">
@@ -3079,7 +3089,7 @@
       <c r="B34" s="7">
         <v>21</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="21">
@@ -3198,7 +3208,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3395,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3406,8 +3416,8 @@
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>476250</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
